--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D497B-E07E-497C-8D68-96DFA30104E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +26,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>zero, mkm</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>zero mk, cm</t>
+  </si>
+  <si>
+    <t>\lambda, nm</t>
+  </si>
+  <si>
+    <t>D, mkm</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>2z_m</t>
+  </si>
+  <si>
+    <t>\lambda, cm</t>
+  </si>
+  <si>
+    <t>a, cm</t>
+  </si>
+  <si>
+    <t>\sigma_a</t>
+  </si>
+  <si>
+    <t>\sigma</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>X_m, мкм</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +123,1070 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>A!$G$5:$G$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>12.022894826122283</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9354161152284752</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.011447413061183</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.2132007565057545</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10.41213234645045</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>13.291810344051001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>A!$G$5:$G$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>12.022894826122283</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9354161152284752</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.011447413061183</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.2132007565057545</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10.41213234645045</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>13.291810344051001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>A!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>A!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.091579304489812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.76660490558982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480.91579304489471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>492.79204539034521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>499.78235262962272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>478.50517238583893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5989-4A9B-9962-2F8C977348E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>A!$S$4:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>A!$T$4:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5989-4A9B-9962-2F8C977348E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1936434992"/>
+        <c:axId val="1998561040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1936434992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998561040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1998561040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936434992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801A8D62-CF9D-45A4-9B79-493A718C8DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,12 +1451,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>50.7</v>
+      </c>
+      <c r="E2">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="G2">
+        <f>E2*0.0000001</f>
+        <v>5.7819999999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>A13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50.6</v>
+      </c>
+      <c r="C5">
+        <f>$C$2-B5</f>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <f>2*A5+1</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>I5*10000</f>
+        <v>48.091579304489812</v>
+      </c>
+      <c r="G5" s="2">
+        <f>J5*10000</f>
+        <v>12.022894826122283</v>
+      </c>
+      <c r="I5">
+        <f>2*SQRT(C5*E5*$G$2)</f>
+        <v>4.8091579304489814E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <f>2*SQRT(SUMSQ(D5*E5*$G$2/I5))</f>
+        <v>1.2022894826122282E-3</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <f>A13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>47.9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C10" si="0">$C$2-B6</f>
+        <v>2.8000000000000043</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <f>2*A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <f>I6*10000</f>
+        <v>440.76660490558982</v>
+      </c>
+      <c r="G6" s="2">
+        <f>J6*10000</f>
+        <v>3.9354161152284752</v>
+      </c>
+      <c r="I6">
+        <f>2*SQRT(C6*E6*$G$2)</f>
+        <v>4.4076660490558979E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <f>2*SQRT(SUMSQ(D6*E6*$G$2/I6))</f>
+        <v>3.9354161152284752E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>48.7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <f>2*A7+1</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <f>I7*10000</f>
+        <v>480.91579304489471</v>
+      </c>
+      <c r="G7" s="2">
+        <f>J7*10000</f>
+        <v>6.011447413061183</v>
+      </c>
+      <c r="I7">
+        <f>2*SQRT(C7*E7*$G$2)</f>
+        <v>4.8091579304489471E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f>2*SQRT(SUMSQ(D7*E7*$G$2/I7))</f>
+        <v>6.0114474130611834E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>49.2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <f>2*A8+1</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <f>I8*10000</f>
+        <v>492.79204539034521</v>
+      </c>
+      <c r="G8" s="2">
+        <f>J8*10000</f>
+        <v>8.2132007565057545</v>
+      </c>
+      <c r="I8">
+        <f>2*SQRT(C8*E8*$G$2)</f>
+        <v>4.9279204539034518E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>2*SQRT(SUMSQ(D8*E8*$G$2/I8))</f>
+        <v>8.2132007565057538E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>49.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="D9">
+        <v>0.05</v>
+      </c>
+      <c r="E9">
+        <f>2*A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <f>I9*10000</f>
+        <v>499.78235262962272</v>
+      </c>
+      <c r="G9" s="2">
+        <f>J9*10000</f>
+        <v>10.41213234645045</v>
+      </c>
+      <c r="I9">
+        <f>2*SQRT(C9*E9*$G$2)</f>
+        <v>4.9978235262962273E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <f>2*SQRT(SUMSQ(D9*E9*$G$2/I9))</f>
+        <v>1.041213234645045E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>49.8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <f>2*A10+1</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <f>I10*10000</f>
+        <v>478.50517238583893</v>
+      </c>
+      <c r="G10" s="2">
+        <f>J10*10000</f>
+        <v>13.291810344051001</v>
+      </c>
+      <c r="I10">
+        <f>2*SQRT(C10*E10*$G$2)</f>
+        <v>4.7850517238583891E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <f>2*SQRT(SUMSQ(D10*E10*$G$2/I10))</f>
+        <v>1.3291810344051001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD98F3-BCB2-4009-8F28-3D1C7EF89812}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85B0FD6-F4CC-491E-BDBD-51E1ADEF5F91}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D497B-E07E-497C-8D68-96DFA30104E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF9EC8-3830-496A-A0E9-F04731792A6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>zero, mkm</t>
   </si>
@@ -65,14 +65,42 @@
     <t>da</t>
   </si>
   <si>
-    <t>X_m, мкм</t>
+    <t>\sigma_{X_m}</t>
+  </si>
+  <si>
+    <t>F_2</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D_izm</t>
+  </si>
+  <si>
+    <t>\Delta_X</t>
+  </si>
+  <si>
+    <t>\DeltaDX</t>
+  </si>
+  <si>
+    <t>x_m</t>
+  </si>
+  <si>
+    <t>X_m, мkм</t>
+  </si>
+  <si>
+    <t>DD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -104,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -390,10 +419,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>360</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,7 +621,459 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>B!$E$2:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>B!$E$2:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>B!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>B!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B169-41CC-80AE-1DE1AC462E37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2062123040"/>
+        <c:axId val="2062119712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2062123040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062119712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2062119712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062123040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1148,6 +1629,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1169,6 +2166,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801A8D62-CF9D-45A4-9B79-493A718C8DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EA773D-C5C8-4957-8B3B-CD032AAD165D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,8 +2563,8 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f>A13</f>
-        <v>360</v>
+        <f>B13</f>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1547,11 +2585,11 @@
         <f>2*A5+1</f>
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f>I5*10000</f>
         <v>48.091579304489812</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <f>J5*10000</f>
         <v>12.022894826122283</v>
       </c>
@@ -1567,8 +2605,8 @@
         <v>12</v>
       </c>
       <c r="T5">
-        <f>A13</f>
-        <v>360</v>
+        <f>B13</f>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1589,11 +2627,11 @@
         <f>2*A6+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <f>I6*10000</f>
         <v>440.76660490558982</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <f>J6*10000</f>
         <v>3.9354161152284752</v>
       </c>
@@ -1624,11 +2662,11 @@
         <f>2*A7+1</f>
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <f>I7*10000</f>
         <v>480.91579304489471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <f>J7*10000</f>
         <v>6.011447413061183</v>
       </c>
@@ -1659,11 +2697,11 @@
         <f>2*A8+1</f>
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <f>I8*10000</f>
         <v>492.79204539034521</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <f>J8*10000</f>
         <v>8.2132007565057545</v>
       </c>
@@ -1694,11 +2732,11 @@
         <f>2*A9+1</f>
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <f>I9*10000</f>
         <v>499.78235262962272</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <f>J9*10000</f>
         <v>10.41213234645045</v>
       </c>
@@ -1729,11 +2767,11 @@
         <f>2*A10+1</f>
         <v>11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <f>I10*10000</f>
         <v>478.50517238583893</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <f>J10*10000</f>
         <v>13.291810344051001</v>
       </c>
@@ -1750,10 +2788,17 @@
       <c r="A12" t="s">
         <v>4</v>
       </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>360</v>
+      </c>
+      <c r="B13">
+        <f>A13-A2</f>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -1764,59 +2809,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD98F3-BCB2-4009-8F28-3D1C7EF89812}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C2">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <f>B2*0.02*1000</f>
+        <v>46.4</v>
+      </c>
+      <c r="E2">
+        <f>C2*0.02*1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>_xlfn.COVARIANCE.P(A2:A8,D2:D8)/_xlfn.VAR.P(A2:A8)</f>
+        <v>5.4857142857142858</v>
+      </c>
+      <c r="I2" s="2">
+        <f>1/SQRT(7) * SQRT(_xlfn.VAR.P(D2:D8)/_xlfn.VAR.P(A2:A8)-H2*H2)</f>
+        <v>0.58494224877531853</v>
+      </c>
+      <c r="K2">
+        <f>2*B12*C11/H2</f>
+        <v>26350.260416666668</v>
+      </c>
+      <c r="L2">
+        <f>$C$11*$B$12*A2/D2</f>
+        <v>1557.6508620689656</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-1</v>
       </c>
+      <c r="B3">
+        <v>2.16</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="1">B3*0.02*1000</f>
+        <v>43.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="2">C3*0.02*1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="3">$C$11*$B$12*A3/D3</f>
+        <v>-1673.0324074074074</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>3.04</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>60.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="3">
+        <f>H2/10000</f>
+        <v>5.4857142857142854E-4</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="K4">
+        <f>2*C12*B11/H4</f>
+        <v>2.6350260416666673</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>2377.4671052631579</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-2</v>
       </c>
+      <c r="B5">
+        <v>1.92</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>-3764.322916666667</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>3.36</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>67.2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>3226.5625</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-3</v>
       </c>
+      <c r="B7">
+        <v>1.6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>-6775.78125</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>12.5</v>
+      </c>
+      <c r="C11">
+        <f>B11*10000</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f>A!E2*0.001</f>
+        <v>0.57820000000000005</v>
+      </c>
+      <c r="C12">
+        <f>B12/10000</f>
+        <v>5.7820000000000005E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>384</v>
+      </c>
+      <c r="B16">
+        <f>A16-A!A2</f>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1825,7 +3086,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF9EC8-3830-496A-A0E9-F04731792A6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F30E15F-F6A9-4742-AA48-409C424816EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>zero, mkm</t>
   </si>
@@ -89,10 +89,52 @@
     <t>x_m</t>
   </si>
   <si>
-    <t>X_m, мkм</t>
-  </si>
-  <si>
     <t>DD</t>
+  </si>
+  <si>
+    <t>X_m</t>
+  </si>
+  <si>
+    <t>\delta_X, mkm</t>
+  </si>
+  <si>
+    <t>\delta_x</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>delta x</t>
+  </si>
+  <si>
+    <t>\delta deltax</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>d mm</t>
+  </si>
+  <si>
+    <t>dD</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>theor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>X_m, мм</t>
   </si>
 </sst>
 </file>
@@ -100,8 +142,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -135,8 +177,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -687,7 +729,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>B!$E$2:$E$8</c:f>
+                <c:f>B!$F$2:$F$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -717,7 +759,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>B!$E$2:$E$8</c:f>
+                <c:f>B!$F$2:$F$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -816,25 +858,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46.4</c:v>
+                  <c:v>5.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.2</c:v>
+                  <c:v>4.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.8</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.4</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.2</c:v>
+                  <c:v>6.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,23 +2624,23 @@
         <v>0.05</v>
       </c>
       <c r="E5">
-        <f>2*A5+1</f>
+        <f t="shared" ref="E5:E10" si="0">2*A5+1</f>
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <f>I5*10000</f>
+        <f t="shared" ref="F5:G10" si="1">I5*10000</f>
         <v>48.091579304489812</v>
       </c>
       <c r="G5" s="3">
-        <f>J5*10000</f>
+        <f t="shared" si="1"/>
         <v>12.022894826122283</v>
       </c>
       <c r="I5">
-        <f>2*SQRT(C5*E5*$G$2)</f>
+        <f t="shared" ref="I5:I10" si="2">2*SQRT(C5*E5*$G$2)</f>
         <v>4.8091579304489814E-3</v>
       </c>
       <c r="J5" s="1">
-        <f>2*SQRT(SUMSQ(D5*E5*$G$2/I5))</f>
+        <f t="shared" ref="J5:J10" si="3">2*SQRT(SUMSQ(D5*E5*$G$2/I5))</f>
         <v>1.2022894826122282E-3</v>
       </c>
       <c r="S5">
@@ -2617,30 +2659,30 @@
         <v>47.9</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C10" si="0">$C$2-B6</f>
+        <f t="shared" ref="C6:C10" si="4">$C$2-B6</f>
         <v>2.8000000000000043</v>
       </c>
       <c r="D6">
         <v>0.05</v>
       </c>
       <c r="E6">
-        <f>2*A6+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F6" s="3">
-        <f>I6*10000</f>
+        <f t="shared" si="1"/>
         <v>440.76660490558982</v>
       </c>
       <c r="G6" s="3">
-        <f>J6*10000</f>
+        <f t="shared" si="1"/>
         <v>3.9354161152284752</v>
       </c>
       <c r="I6">
-        <f>2*SQRT(C6*E6*$G$2)</f>
+        <f t="shared" si="2"/>
         <v>4.4076660490558979E-2</v>
       </c>
       <c r="J6" s="1">
-        <f>2*SQRT(SUMSQ(D6*E6*$G$2/I6))</f>
+        <f t="shared" si="3"/>
         <v>3.9354161152284752E-4</v>
       </c>
     </row>
@@ -2652,30 +2694,30 @@
         <v>48.7</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D7">
         <v>0.05</v>
       </c>
       <c r="E7">
-        <f>2*A7+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <f>I7*10000</f>
+        <f t="shared" si="1"/>
         <v>480.91579304489471</v>
       </c>
       <c r="G7" s="3">
-        <f>J7*10000</f>
+        <f t="shared" si="1"/>
         <v>6.011447413061183</v>
       </c>
       <c r="I7">
-        <f>2*SQRT(C7*E7*$G$2)</f>
+        <f t="shared" si="2"/>
         <v>4.8091579304489471E-2</v>
       </c>
       <c r="J7" s="1">
-        <f>2*SQRT(SUMSQ(D7*E7*$G$2/I7))</f>
+        <f t="shared" si="3"/>
         <v>6.0114474130611834E-4</v>
       </c>
     </row>
@@ -2687,30 +2729,30 @@
         <v>49.2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D8">
         <v>0.05</v>
       </c>
       <c r="E8">
-        <f>2*A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F8" s="3">
-        <f>I8*10000</f>
+        <f t="shared" si="1"/>
         <v>492.79204539034521</v>
       </c>
       <c r="G8" s="3">
-        <f>J8*10000</f>
+        <f t="shared" si="1"/>
         <v>8.2132007565057545</v>
       </c>
       <c r="I8">
-        <f>2*SQRT(C8*E8*$G$2)</f>
+        <f t="shared" si="2"/>
         <v>4.9279204539034518E-2</v>
       </c>
       <c r="J8" s="1">
-        <f>2*SQRT(SUMSQ(D8*E8*$G$2/I8))</f>
+        <f t="shared" si="3"/>
         <v>8.2132007565057538E-4</v>
       </c>
     </row>
@@ -2722,30 +2764,30 @@
         <v>49.5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2000000000000028</v>
       </c>
       <c r="D9">
         <v>0.05</v>
       </c>
       <c r="E9">
-        <f>2*A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F9" s="3">
-        <f>I9*10000</f>
+        <f t="shared" si="1"/>
         <v>499.78235262962272</v>
       </c>
       <c r="G9" s="3">
-        <f>J9*10000</f>
+        <f t="shared" si="1"/>
         <v>10.41213234645045</v>
       </c>
       <c r="I9">
-        <f>2*SQRT(C9*E9*$G$2)</f>
+        <f t="shared" si="2"/>
         <v>4.9978235262962273E-2</v>
       </c>
       <c r="J9" s="1">
-        <f>2*SQRT(SUMSQ(D9*E9*$G$2/I9))</f>
+        <f t="shared" si="3"/>
         <v>1.041213234645045E-3</v>
       </c>
     </row>
@@ -2757,30 +2799,30 @@
         <v>49.8</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.90000000000000568</v>
       </c>
       <c r="D10">
         <v>0.05</v>
       </c>
       <c r="E10">
-        <f>2*A10+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F10" s="3">
-        <f>I10*10000</f>
+        <f t="shared" si="1"/>
         <v>478.50517238583893</v>
       </c>
       <c r="G10" s="3">
-        <f>J10*10000</f>
+        <f t="shared" si="1"/>
         <v>13.291810344051001</v>
       </c>
       <c r="I10">
-        <f>2*SQRT(C10*E10*$G$2)</f>
+        <f t="shared" si="2"/>
         <v>4.7850517238583891E-2</v>
       </c>
       <c r="J10" s="1">
-        <f>2*SQRT(SUMSQ(D10*E10*$G$2/I10))</f>
+        <f t="shared" si="3"/>
         <v>1.3291810344051001E-3</v>
       </c>
     </row>
@@ -2789,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2812,12 +2854,13 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2832,9 +2875,12 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
@@ -2852,35 +2898,39 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3199999999999998</v>
+        <v>282</v>
       </c>
       <c r="C2">
         <f>0.01</f>
         <v>0.01</v>
       </c>
       <c r="D2">
-        <f>B2*0.02*1000</f>
-        <v>46.4</v>
+        <f>B2*0.02</f>
+        <v>5.64</v>
       </c>
       <c r="E2">
+        <f>D2-$D$8</f>
+        <v>0.63999999999999968</v>
+      </c>
+      <c r="F2">
         <f>C2*0.02*1000</f>
         <v>0.2</v>
       </c>
       <c r="H2" s="2">
         <f>_xlfn.COVARIANCE.P(A2:A8,D2:D8)/_xlfn.VAR.P(A2:A8)</f>
-        <v>5.4857142857142858</v>
+        <v>0.54142857142857148</v>
       </c>
       <c r="I2" s="2">
         <f>1/SQRT(7) * SQRT(_xlfn.VAR.P(D2:D8)/_xlfn.VAR.P(A2:A8)-H2*H2)</f>
-        <v>0.58494224877531853</v>
+        <v>2.335553573701148E-2</v>
       </c>
       <c r="K2">
         <f>2*B12*C11/H2</f>
-        <v>26350.260416666668</v>
-      </c>
-      <c r="L2">
-        <f>$C$11*$B$12*A2/D2</f>
-        <v>1557.6508620689656</v>
+        <v>266.97889182058049</v>
+      </c>
+      <c r="L2" s="1">
+        <f>$C$11*$B$12*0.001*A2/E2</f>
+        <v>0.11292968750000007</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2888,23 +2938,27 @@
         <v>-1</v>
       </c>
       <c r="B3">
-        <v>2.16</v>
+        <v>216</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C8" si="0">0.01</f>
         <v>0.01</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="1">B3*0.02*1000</f>
-        <v>43.2</v>
+        <f t="shared" ref="D3:D8" si="1">B3*0.02</f>
+        <v>4.32</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">C3*0.02*1000</f>
+        <f t="shared" ref="E3:E8" si="2">D3-$D$8</f>
+        <v>-0.67999999999999972</v>
+      </c>
+      <c r="F3">
+        <f>C3*0.02*1000</f>
         <v>0.2</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="3">$C$11*$B$12*A3/D3</f>
-        <v>-1673.0324074074074</v>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L7" si="3">$C$11*$B$12*0.001*A3/E3</f>
+        <v>0.1062867647058824</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2912,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.04</v>
+        <v>304</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -2920,24 +2974,28 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>60.8</v>
+        <v>6.08</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="F4">
+        <f>C4*0.02*1000</f>
         <v>0.2</v>
       </c>
       <c r="H4" s="3">
         <f>H2/10000</f>
-        <v>5.4857142857142854E-4</v>
+        <v>5.414285714285715E-5</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4">
         <f>2*C12*B11/H4</f>
-        <v>2.6350260416666673</v>
-      </c>
-      <c r="L4">
+        <v>26.697889182058049</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="3"/>
-        <v>2377.4671052631579</v>
+        <v>0.1338425925925926</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2945,7 +3003,7 @@
         <v>-2</v>
       </c>
       <c r="B5">
-        <v>1.92</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -2953,15 +3011,19 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>38.4</v>
+        <v>3.84</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
+        <v>-1.1600000000000001</v>
+      </c>
+      <c r="F5">
+        <f>C5*0.02*1000</f>
         <v>0.2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>-3764.322916666667</v>
+        <v>0.12461206896551724</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2969,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3.36</v>
+        <v>316</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -2977,15 +3039,19 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>67.2</v>
+        <v>6.32</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="F6">
+        <f>C6*0.02*1000</f>
         <v>0.2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>3226.5625</v>
+        <v>0.16426136363636362</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2993,7 +3059,7 @@
         <v>-3</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -3001,15 +3067,19 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>3.2</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
+        <v>-1.7999999999999998</v>
+      </c>
+      <c r="F7">
+        <f>C7*0.02*1000</f>
         <v>0.2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>-6775.78125</v>
+        <v>0.12045833333333336</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3017,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2.5</v>
+        <v>250</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -3025,15 +3095,21 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>C8*0.02*1000</f>
         <v>0.2</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="1">
+        <f>AVERAGE(L2:L7)</f>
+        <v>0.12706513512228154</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3044,8 +3120,8 @@
         <v>12.5</v>
       </c>
       <c r="C11">
-        <f>B11*10000</f>
-        <v>125000</v>
+        <f>B11*10</f>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3073,6 +3149,10 @@
       <c r="B16">
         <f>A16-A!A2</f>
         <v>361</v>
+      </c>
+      <c r="D16">
+        <f>C11*B12*A2/B16</f>
+        <v>0.200207756232687</v>
       </c>
     </row>
   </sheetData>
@@ -3083,14 +3163,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85B0FD6-F4CC-491E-BDBD-51E1ADEF5F91}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <f>A2*0.02*1000</f>
+        <v>720</v>
+      </c>
+      <c r="C2">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>B2/D2</f>
+        <v>65.454545454545453</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(SUMSQ(C2/D2,B2*E2/D2^2))</f>
+        <v>5.950413500918267</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f>B!B12</f>
+        <v>0.57820000000000005</v>
+      </c>
+      <c r="K3">
+        <f>B!C11</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>K3*J3/G2</f>
+        <v>1.1042013888888891</v>
+      </c>
+      <c r="B5">
+        <f>K3*J3*H2/G2^2</f>
+        <v>0.10038194913048418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <f>A5/1000</f>
+        <v>1.1042013888888892E-3</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B5/1000</f>
+        <v>1.0038194913048418E-4</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <f>2*A13/D13</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F30E15F-F6A9-4742-AA48-409C424816EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A49D6ED-E421-423D-BEC5-22B119CE83FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>zero, mkm</t>
   </si>
@@ -135,15 +135,31 @@
   </si>
   <si>
     <t>X_m, мм</t>
+  </si>
+  <si>
+    <t>b_0 , mkm</t>
+  </si>
+  <si>
+    <t>F_1</t>
+  </si>
+  <si>
+    <t>b_0</t>
+  </si>
+  <si>
+    <t>db_0</t>
+  </si>
+  <si>
+    <t>mkm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -174,11 +190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -660,6 +677,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1072,6 +1090,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2191,16 +2210,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2229,19 +2248,116 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89901</cdr:x>
+      <cdr:y>0.81461</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96865</cdr:x>
+      <cdr:y>0.90685</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7341236C-AF83-4FF5-9028-781AC3C82A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4151376" y="2265680"/>
+          <a:ext cx="321564" cy="256540"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>m</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08251</cdr:x>
+      <cdr:y>0.03836</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25248</cdr:x>
+      <cdr:y>0.14247</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A20043E-421C-4243-81F9-4359E2F71B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="381000" y="106680"/>
+          <a:ext cx="784860" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2z_m,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>мкм</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2267,6 +2383,98 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50677</cdr:x>
+      <cdr:y>0.0491</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60827</cdr:x>
+      <cdr:y>0.11272</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1483295-7AD0-4D32-8BF8-356383A98650}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3423920" y="180340"/>
+          <a:ext cx="685800" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>X_m, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>мкм</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.93609</cdr:x>
+      <cdr:y>0.86445</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9782</cdr:x>
+      <cdr:y>0.92324</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E691A0F-7019-4DBC-A485-20EE17E88C59}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6324600" y="3175000"/>
+          <a:ext cx="284480" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>m</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2534,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="E10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD98F3-BCB2-4009-8F28-3D1C7EF89812}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,15 +3371,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85B0FD6-F4CC-491E-BDBD-51E1ADEF5F91}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3194,7 +3402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>36</v>
       </c>
@@ -3226,8 +3434,11 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3">
         <f>B!B12</f>
         <v>0.57820000000000005</v>
@@ -3236,8 +3447,11 @@
         <f>B!C11</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3245,7 +3459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>K3*J3/G2</f>
         <v>1.1042013888888891</v>
@@ -3255,7 +3469,7 @@
         <v>0.10038194913048418</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3263,7 +3477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f>A5/1000</f>
         <v>1.1042013888888892E-3</v>
@@ -3275,12 +3489,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3299,8 +3513,14 @@
       <c r="H12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3315,6 +3535,43 @@
       </c>
       <c r="G13">
         <f>2*A13/D13</f>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f>J3*0.001*L3/A13</f>
+        <v>9.2512000000000011E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f>I13/A13*B13</f>
+        <v>9.2512000000000009E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3">
+        <f>I13*1000</f>
+        <v>92.512000000000015</v>
+      </c>
+      <c r="J14" s="3">
+        <f>J13*1000</f>
+        <v>0.92512000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17">
         <v>10</v>
       </c>
     </row>

--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A49D6ED-E421-423D-BEC5-22B119CE83FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E5FC89-5856-4AB5-B6FB-5C50D9BBB5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="B" sheetId="2" r:id="rId2"/>
     <sheet name="C" sheetId="3" r:id="rId3"/>
+    <sheet name="D" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>zero, mkm</t>
   </si>
@@ -150,6 +151,15 @@
   </si>
   <si>
     <t>mkm</t>
+  </si>
+  <si>
+    <t>почти сливаются</t>
+  </si>
+  <si>
+    <t>D_0, mkm</t>
+  </si>
+  <si>
+    <t>dD_0</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3384,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3411,8 +3421,8 @@
         <v>720</v>
       </c>
       <c r="C2">
-        <f>0.02</f>
-        <v>0.02</v>
+        <f>0.02*1000</f>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -3426,7 +3436,7 @@
       </c>
       <c r="H2">
         <f>SQRT(SUMSQ(C2/D2,B2*E2/D2^2))</f>
-        <v>5.950413500918267</v>
+        <v>6.2219934627169291</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -3466,7 +3476,7 @@
       </c>
       <c r="B5">
         <f>K3*J3*H2/G2^2</f>
-        <v>0.10038194913048418</v>
+        <v>0.10496343340984142</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3484,7 +3494,7 @@
       </c>
       <c r="B8" s="3">
         <f>B5/1000</f>
-        <v>1.0038194913048418E-4</v>
+        <v>1.0496343340984141E-4</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3572,6 +3582,42 @@
         <v>90</v>
       </c>
       <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C376F5-8BD3-4FF6-AA01-BF2D5F7552EE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>128</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
     </row>

--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E5FC89-5856-4AB5-B6FB-5C50D9BBB5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573D23D-2A5E-42E0-B2F6-C50C5A430C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>zero, mkm</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>dD_0</t>
+  </si>
+  <si>
+    <t>D_0</t>
   </si>
 </sst>
 </file>
@@ -3383,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85B0FD6-F4CC-491E-BDBD-51E1ADEF5F91}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3592,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C376F5-8BD3-4FF6-AA01-BF2D5F7552EE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3621,6 +3624,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>1/('C'!A13/('C'!L3*0.001*'C'!J3))</f>
+        <v>9.2512000000000011E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.3.1/difr.xlsx
+++ b/4.3.1/difr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573D23D-2A5E-42E0-B2F6-C50C5A430C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E536B8D7-586F-4FE2-BD92-5AA171C36CF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3598,7 +3598,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,6 +3639,10 @@
         <f>1/('C'!A13/('C'!L3*0.001*'C'!J3))</f>
         <v>9.2512000000000011E-2</v>
       </c>
+      <c r="B8">
+        <f>A8*1000</f>
+        <v>92.512000000000015</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
